--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MyAccount.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MyAccount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-6220\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Case</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>delinking</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>Transaction_Category</t>
+  </si>
+  <si>
+    <t>Non Financial</t>
   </si>
 </sst>
 </file>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,11 +411,13 @@
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="86.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="196.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +436,14 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,6 +464,9 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
